--- a/src/test/resources/data/auto.xlsx
+++ b/src/test/resources/data/auto.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thongcao/eclipse-workspace/myselenium/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D3409-4BE1-FF4A-925E-0FA38BBFA986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF3EA71-746B-D143-8590-F9A3C4AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{4CA1796A-D721-B641-82EF-FF58BDA2FA5C}"/>
+    <workbookView xWindow="2320" yWindow="-18800" windowWidth="28800" windowHeight="16860" activeTab="1" xr2:uid="{4CA1796A-D721-B641-82EF-FF58BDA2FA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="RUNMANAGER" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -71,6 +72,30 @@
   </si>
   <si>
     <t>thong6</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>InvocationCount</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -424,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02438602-7BE7-664E-8756-94815B9C8649}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -505,4 +530,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09999D5F-C889-0240-AAA7-07A6EE959DF8}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/auto.xlsx
+++ b/src/test/resources/data/auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thongcao/eclipse-workspace/myselenium/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF3EA71-746B-D143-8590-F9A3C4AD2589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C2623-4AA9-5841-AFC3-3B686AAC3A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="-18800" windowWidth="28800" windowHeight="16860" activeTab="1" xr2:uid="{4CA1796A-D721-B641-82EF-FF58BDA2FA5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -74,28 +74,37 @@
     <t>thong6</t>
   </si>
   <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
     <t>test2</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>InvocationCount</t>
-  </si>
-  <si>
-    <t>Priority</t>
+    <t>count</t>
+  </si>
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>testdesc</t>
+  </si>
+  <si>
+    <t>check login</t>
+  </si>
+  <si>
+    <t>check login2</t>
   </si>
 </sst>
 </file>
@@ -534,53 +543,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09999D5F-C889-0240-AAA7-07A6EE959DF8}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/data/auto.xlsx
+++ b/src/test/resources/data/auto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thongcao/eclipse-workspace/myselenium/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C2623-4AA9-5841-AFC3-3B686AAC3A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4BE535-44B4-FF4F-8BB5-AAB9D7662F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="-18800" windowWidth="28800" windowHeight="16860" activeTab="1" xr2:uid="{4CA1796A-D721-B641-82EF-FF58BDA2FA5C}"/>
+    <workbookView xWindow="1900" yWindow="-20280" windowWidth="28800" windowHeight="16860" xr2:uid="{4CA1796A-D721-B641-82EF-FF58BDA2FA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -50,30 +50,6 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>thong</t>
-  </si>
-  <si>
-    <t>thongcao</t>
-  </si>
-  <si>
-    <t>thong1</t>
-  </si>
-  <si>
-    <t>thong2</t>
-  </si>
-  <si>
-    <t>thong3</t>
-  </si>
-  <si>
-    <t>thong4</t>
-  </si>
-  <si>
-    <t>thong5</t>
-  </si>
-  <si>
-    <t>thong6</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
@@ -105,6 +81,18 @@
   </si>
   <si>
     <t>check login2</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -456,84 +444,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02438602-7BE7-664E-8756-94815B9C8649}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09999D5F-C889-0240-AAA7-07A6EE959DF8}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -556,30 +542,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -590,13 +576,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
